--- a/results/comparison_GoTPlainLLM/GoTPlainLLM_consolidated.xlsx
+++ b/results/comparison_GoTPlainLLM/GoTPlainLLM_consolidated.xlsx
@@ -545,22 +545,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2808988714400013</v>
+        <v>0.3081570948359362</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03114755597601048</v>
+        <v>0.06945642409867304</v>
       </c>
       <c r="E2" t="n">
-        <v>0.592187225818634</v>
+        <v>0.6115989089012146</v>
       </c>
       <c r="F2" t="n">
-        <v>47.39331889763781</v>
+        <v>33.64250000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8079470198675497</v>
+        <v>0.8410596026490066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -575,13 +575,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32.93302416801453</v>
+        <v>20.20839214324951</v>
       </c>
       <c r="N2" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O2" t="n">
-        <v>8.699999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.93302130699158</v>
+        <v>20.2083888053894</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -609,19 +609,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06153845893491135</v>
+        <v>0.1176470563148789</v>
       </c>
       <c r="D3" t="n">
-        <v>8.259885936748448e-232</v>
+        <v>9.257324954728539e-232</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5040034651756287</v>
+        <v>0.525873064994812</v>
       </c>
       <c r="F3" t="n">
-        <v>49.5011281224819</v>
+        <v>50.62483805668018</v>
       </c>
       <c r="G3" t="n">
-        <v>3.577981651376147</v>
+        <v>3.44954128440367</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21.13585138320923</v>
+        <v>19.95772457122803</v>
       </c>
       <c r="N3" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O3" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.1358494758606</v>
+        <v>19.95772218704224</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1874999952392579</v>
+        <v>0.261224485169846</v>
       </c>
       <c r="D4" t="n">
-        <v>2.283924770362561e-79</v>
+        <v>0.01038566497758791</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4934699833393097</v>
+        <v>0.6035124659538269</v>
       </c>
       <c r="F4" t="n">
-        <v>42.79951505016726</v>
+        <v>53.28042857142859</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5844017094017094</v>
+        <v>0.5534188034188035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>13.25567007064819</v>
+        <v>14.73306679725647</v>
       </c>
       <c r="N4" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O4" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>13.2556676864624</v>
+        <v>14.73306465148926</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2767295554137496</v>
+        <v>0.1911262760213865</v>
       </c>
       <c r="D5" t="n">
-        <v>4.011461165867016e-79</v>
+        <v>1.263291896003374e-79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6422466635704041</v>
+        <v>0.5303409695625305</v>
       </c>
       <c r="F5" t="n">
-        <v>53.48046610169493</v>
+        <v>55.8473203026482</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4746317512274959</v>
+        <v>0.3584288052373159</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -767,13 +767,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>14.79800128936768</v>
+        <v>16.37832760810852</v>
       </c>
       <c r="N5" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O5" t="n">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.79799914360046</v>
+        <v>16.37832474708557</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -801,22 +801,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3034482708737218</v>
+        <v>0.2580645113839751</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03439341012102037</v>
+        <v>0.02267561582257455</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6212223172187805</v>
+        <v>0.5506061315536499</v>
       </c>
       <c r="F6" t="n">
-        <v>61.53783915876778</v>
+        <v>42.84346153846155</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8218390804597702</v>
+        <v>0.628735632183908</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>19.95980954170227</v>
+        <v>16.96751046180725</v>
       </c>
       <c r="N6" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O6" t="n">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>19.95980668067932</v>
+        <v>16.9675087928772</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.222543348479276</v>
+        <v>0.05078124921333314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04410304292401915</v>
+        <v>1.960472721509487e-101</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6590093970298767</v>
+        <v>0.4810872673988342</v>
       </c>
       <c r="F7" t="n">
-        <v>33.74772170797254</v>
+        <v>14.67846153846156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4710503345941228</v>
+        <v>0.05091649694501019</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5294117647058824</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.46963381767273</v>
+        <v>24.07819175720215</v>
       </c>
       <c r="N7" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O7" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>52.46963095664978</v>
+        <v>24.07818913459778</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2838709638509886</v>
+        <v>0.3018867877152884</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003944092515247845</v>
+        <v>0.01489045578671362</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5974553823471069</v>
+        <v>0.6179349422454834</v>
       </c>
       <c r="F8" t="n">
-        <v>39.81429508196723</v>
+        <v>62.60343473451329</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3263888888888889</v>
+        <v>0.5256944444444445</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>19.92425870895386</v>
+        <v>28.93512892723083</v>
       </c>
       <c r="N8" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O8" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>19.92425656318665</v>
+        <v>28.93512606620789</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2072538820498538</v>
+        <v>0.2349726740295321</v>
       </c>
       <c r="D9" t="n">
-        <v>4.040564191631937e-156</v>
+        <v>0.02105957153556883</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5822345018386841</v>
+        <v>0.5695859789848328</v>
       </c>
       <c r="F9" t="n">
-        <v>53.93753246753249</v>
+        <v>50.41338556610023</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3273464658169177</v>
+        <v>0.3076477404403244</v>
       </c>
       <c r="H9" t="n">
         <v>0.25</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>18.81591987609863</v>
+        <v>18.44850063323975</v>
       </c>
       <c r="N9" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O9" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>18.81591796875</v>
+        <v>18.44849872589111</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1057,28 +1057,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2691131459132696</v>
+        <v>0.3140096569552382</v>
       </c>
       <c r="D10" t="n">
-        <v>3.240683511112441e-79</v>
+        <v>0.06835300405411533</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6584568023681641</v>
+        <v>0.6583945155143738</v>
       </c>
       <c r="F10" t="n">
-        <v>53.9361587457129</v>
+        <v>49.30978658536586</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3419312169312169</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="H10" t="n">
-        <v>0.125</v>
+        <v>0.3125</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0.5</v>
@@ -1087,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>19.76827478408813</v>
+        <v>19.16741538047791</v>
       </c>
       <c r="N10" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O10" t="n">
         <v>10.9</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19.76827239990234</v>
+        <v>19.16741299629211</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1121,22 +1121,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08839778690195671</v>
+        <v>0.1699999960351251</v>
       </c>
       <c r="D11" t="n">
-        <v>1.729216599432792e-157</v>
+        <v>1.939041984079217e-80</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5109611749649048</v>
+        <v>0.5932136178016663</v>
       </c>
       <c r="F11" t="n">
-        <v>45.40703855140188</v>
+        <v>43.61145423919149</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2378348824494259</v>
+        <v>0.3275013668671405</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>22.48280119895935</v>
+        <v>22.09217643737793</v>
       </c>
       <c r="N11" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O11" t="n">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.4827995300293</v>
+        <v>22.09217381477356</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1185,25 +1185,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08722741214856228</v>
+        <v>0.1198738150213457</v>
       </c>
       <c r="D12" t="n">
-        <v>9.779494574528791e-162</v>
+        <v>3.730628316728068e-84</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5314856171607971</v>
+        <v>0.5054169297218323</v>
       </c>
       <c r="F12" t="n">
-        <v>43.55833333333334</v>
+        <v>34.24644230769232</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1395216400911162</v>
+        <v>0.1332574031890661</v>
       </c>
       <c r="H12" t="n">
         <v>0.05555555555555555</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>34.74292683601379</v>
+        <v>23.34405970573425</v>
       </c>
       <c r="N12" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O12" t="n">
         <v>10.6</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.74292421340942</v>
+        <v>23.34405755996704</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1249,22 +1249,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1235294095114187</v>
+        <v>0.03289473632963989</v>
       </c>
       <c r="D13" t="n">
-        <v>2.788070177202964e-159</v>
+        <v>8.80033088249013e-269</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5104290843009949</v>
+        <v>0.4399179220199585</v>
       </c>
       <c r="F13" t="n">
-        <v>48.43675000000002</v>
+        <v>75.87500000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1579822616407982</v>
+        <v>0.05432372505543237</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1279,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>23.57348418235779</v>
+        <v>21.51630616188049</v>
       </c>
       <c r="N13" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O13" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>23.57348203659058</v>
+        <v>21.51630425453186</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1623036612647681</v>
+        <v>0.1961852827877555</v>
       </c>
       <c r="D14" t="n">
-        <v>1.387027407636532e-156</v>
+        <v>0.001871647625109588</v>
       </c>
       <c r="E14" t="n">
-        <v>0.58360755443573</v>
+        <v>0.6029277443885803</v>
       </c>
       <c r="F14" t="n">
-        <v>42.15205882352944</v>
+        <v>28.98075675675676</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2816666666666667</v>
+        <v>0.2655555555555555</v>
       </c>
       <c r="H14" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>23.48933172225952</v>
+        <v>29.37796425819397</v>
       </c>
       <c r="N14" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O14" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.48932909965515</v>
+        <v>29.37796211242676</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1377,19 +1377,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2105263110972922</v>
+        <v>0.2048780437834624</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01657872944449094</v>
+        <v>3.976473429071937e-155</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5746120810508728</v>
+        <v>0.6010410785675049</v>
       </c>
       <c r="F15" t="n">
-        <v>41.75821015954523</v>
+        <v>60.89076227390183</v>
       </c>
       <c r="G15" t="n">
-        <v>1.895372233400402</v>
+        <v>1.225352112676056</v>
       </c>
       <c r="H15" t="n">
         <v>0.5</v>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>21.87927651405334</v>
+        <v>16.37391400337219</v>
       </c>
       <c r="N15" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O15" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>21.87927460670471</v>
+        <v>16.3739116191864</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1441,19 +1441,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2780748620309417</v>
+        <v>0.2836363586554711</v>
       </c>
       <c r="D16" t="n">
-        <v>2.009399572128972e-155</v>
+        <v>7.320304309682496e-79</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5704023241996765</v>
+        <v>0.6585880517959595</v>
       </c>
       <c r="F16" t="n">
-        <v>61.8255434782609</v>
+        <v>67.04804789550073</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4935805991440799</v>
+        <v>1.212553495007133</v>
       </c>
       <c r="H16" t="n">
         <v>0.2</v>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0.5</v>
@@ -1471,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>17.51711630821228</v>
+        <v>21.30186223983765</v>
       </c>
       <c r="N16" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O16" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>17.51711392402649</v>
+        <v>21.30186009407043</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2527880990892885</v>
+        <v>0.2232558092806924</v>
       </c>
       <c r="D17" t="n">
-        <v>1.010908639432976e-78</v>
+        <v>1.928672816357525e-155</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6365525722503662</v>
+        <v>0.5966750383377075</v>
       </c>
       <c r="F17" t="n">
-        <v>37.95635135135137</v>
+        <v>61.37160919540233</v>
       </c>
       <c r="G17" t="n">
-        <v>1.09005376344086</v>
+        <v>0.6303763440860215</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>19.00844216346741</v>
+        <v>18.96530485153198</v>
       </c>
       <c r="N17" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O17" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.00843977928162</v>
+        <v>18.96530270576477</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.284734129445672</v>
+        <v>0.3159784519195872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03713536586220045</v>
+        <v>0.03799065065515934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6483252644538879</v>
+        <v>0.6400073170661926</v>
       </c>
       <c r="F18" t="n">
-        <v>54.64586226851853</v>
+        <v>57.89132042253522</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4739096573208723</v>
+        <v>0.3668224299065421</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>34.23179197311401</v>
+        <v>21.5268919467926</v>
       </c>
       <c r="N18" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O18" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>34.23178935050964</v>
+        <v>21.52688956260681</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1633,28 +1633,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2236024808331083</v>
+        <v>0.2363112350422311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0154075163789095</v>
+        <v>0.01032777585822727</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6185508966445923</v>
+        <v>0.6352886557579041</v>
       </c>
       <c r="F19" t="n">
-        <v>52.23320855614975</v>
+        <v>45.32923973362932</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3289386947923533</v>
+        <v>0.4205669083717864</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0.5</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>19.88525748252869</v>
+        <v>19.72332882881165</v>
       </c>
       <c r="N19" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O19" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.88525557518005</v>
+        <v>19.72332644462585</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2102803689300377</v>
+        <v>0.3299492338632792</v>
       </c>
       <c r="D20" t="n">
-        <v>3.179005238256204e-155</v>
+        <v>0.04110421603196075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6077476143836975</v>
+        <v>0.6682062149047852</v>
       </c>
       <c r="F20" t="n">
-        <v>26.97702508960575</v>
+        <v>61.06905228758171</v>
       </c>
       <c r="G20" t="n">
-        <v>0.759403832505323</v>
+        <v>0.6273953158268275</v>
       </c>
       <c r="H20" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>25.62621426582336</v>
+        <v>20.35370993614197</v>
       </c>
       <c r="N20" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O20" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>25.62621188163757</v>
+        <v>20.35370802879333</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -1761,19 +1761,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2513966440186012</v>
+        <v>0.1762917899284006</v>
       </c>
       <c r="D21" t="n">
-        <v>6.621325047435221e-80</v>
+        <v>0.0002394629020897148</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5917636156082153</v>
+        <v>0.5634050965309143</v>
       </c>
       <c r="F21" t="n">
-        <v>39.57404850746269</v>
+        <v>51.19047390109893</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3320113314447592</v>
+        <v>0.2339943342776204</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>19.00047421455383</v>
+        <v>16.86152195930481</v>
       </c>
       <c r="N21" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O21" t="n">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>19.00047206878662</v>
+        <v>16.8615198135376</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -1825,25 +1825,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3711340161128972</v>
+        <v>0.2380952344361182</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05016242808807141</v>
+        <v>5.425545150122602e-79</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6370608806610107</v>
+        <v>0.607921838760376</v>
       </c>
       <c r="F22" t="n">
-        <v>53.66636006974718</v>
+        <v>31.38814102564103</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4963636363636363</v>
+        <v>0.3745454545454546</v>
       </c>
       <c r="H22" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>19.14584827423096</v>
+        <v>27.27500057220459</v>
       </c>
       <c r="N22" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O22" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.14584612846375</v>
+        <v>27.2749981880188</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.277153553396106</v>
+        <v>0.1995565372423932</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02419884885023101</v>
+        <v>0.001944019389966017</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6643050909042358</v>
+        <v>0.6468766927719116</v>
       </c>
       <c r="F23" t="n">
-        <v>39.73284615384614</v>
+        <v>44.38154178176796</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5682131373449701</v>
+        <v>0.3073036288470372</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1919,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>26.12326097488403</v>
+        <v>26.45057916641235</v>
       </c>
       <c r="N23" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O23" t="n">
         <v>11.1</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>26.12325835227966</v>
+        <v>26.45057654380798</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -1953,19 +1953,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1708542663670111</v>
+        <v>0.1830508428925023</v>
       </c>
       <c r="D24" t="n">
-        <v>2.703398200053898e-155</v>
+        <v>3.450492175082192e-155</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5798870325088501</v>
+        <v>0.5996459722518921</v>
       </c>
       <c r="F24" t="n">
-        <v>51.16215053763443</v>
+        <v>48.84787800586514</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8310291858678955</v>
+        <v>1.648233486943164</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15.43478965759277</v>
+        <v>20.61796998977661</v>
       </c>
       <c r="N24" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O24" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>15.43478751182556</v>
+        <v>20.6179678440094</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1999999962835556</v>
+        <v>0.1979166618234593</v>
       </c>
       <c r="D25" t="n">
-        <v>1.527812996547683e-79</v>
+        <v>7.88747618589214e-79</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5211139321327209</v>
+        <v>0.5482040047645569</v>
       </c>
       <c r="F25" t="n">
-        <v>25.58448717948721</v>
+        <v>41.15025862068967</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.6711915535444947</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>12.67552399635315</v>
+        <v>16.0600483417511</v>
       </c>
       <c r="N25" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O25" t="n">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.67552161216736</v>
+        <v>16.06004667282104</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2547770652845958</v>
+        <v>0.2717391254400994</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04277691293095792</v>
+        <v>0.03381556285910982</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6579040288925171</v>
+        <v>0.6246238946914673</v>
       </c>
       <c r="F26" t="n">
-        <v>51.33388888888888</v>
+        <v>45.35873684210529</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6308492201039861</v>
+        <v>0.9618717504332756</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2111,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>14.38245344161987</v>
+        <v>15.98785471916199</v>
       </c>
       <c r="N26" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O26" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38245129585266</v>
+        <v>15.9878523349762</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2145,19 +2145,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.218749995521376</v>
+        <v>0.240343342680101</v>
       </c>
       <c r="D27" t="n">
-        <v>6.932739692712583e-79</v>
+        <v>1.012589989058149e-78</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5423139333724976</v>
+        <v>0.5892224907875061</v>
       </c>
       <c r="F27" t="n">
-        <v>58.98694960212205</v>
+        <v>53.69316450875857</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5444596443228454</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>11.7765154838562</v>
+        <v>14.74884819984436</v>
       </c>
       <c r="N27" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O27" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>11.77651309967041</v>
+        <v>14.74884581565857</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2209,25 +2209,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.262135917377227</v>
+        <v>0.1975308599778998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02968325532871771</v>
+        <v>5.944277871850535e-156</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6500471234321594</v>
+        <v>0.5973124504089355</v>
       </c>
       <c r="F28" t="n">
-        <v>56.86523809523811</v>
+        <v>27.52500000000003</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8575757575757575</v>
+        <v>0.4893939393939394</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>21.66779685020447</v>
+        <v>17.4378936290741</v>
       </c>
       <c r="N28" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O28" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.66779470443726</v>
+        <v>17.43789100646973</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2273,19 +2273,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2282608645705341</v>
+        <v>0.2341463364901845</v>
       </c>
       <c r="D29" t="n">
-        <v>2.446935721825231e-155</v>
+        <v>0.02701816676407735</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5758686065673828</v>
+        <v>0.5710042119026184</v>
       </c>
       <c r="F29" t="n">
-        <v>61.37679487179491</v>
+        <v>54.1154952830189</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9045138888888888</v>
+        <v>1.154513888888889</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>13.80329012870789</v>
+        <v>15.09557819366455</v>
       </c>
       <c r="N29" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O29" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.80328822135925</v>
+        <v>15.09557580947876</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.09259259106481484</v>
+        <v>0.08333333163411462</v>
       </c>
       <c r="D30" t="n">
-        <v>1.728655996352249e-155</v>
+        <v>1.786082455871919e-155</v>
       </c>
       <c r="E30" t="n">
-        <v>0.478020191192627</v>
+        <v>0.4438272416591644</v>
       </c>
       <c r="F30" t="n">
-        <v>40.24117122141664</v>
+        <v>38.50805944055946</v>
       </c>
       <c r="G30" t="n">
-        <v>5.91</v>
+        <v>5.44</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>17.66541862487793</v>
+        <v>13.85271620750427</v>
       </c>
       <c r="N30" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O30" t="n">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>17.66541624069214</v>
+        <v>13.85271406173706</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2401,19 +2401,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.09999999800312503</v>
+        <v>0.05660377203097192</v>
       </c>
       <c r="D31" t="n">
-        <v>1.850880640297462e-155</v>
+        <v>1.686492290265337e-155</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5050526857376099</v>
+        <v>0.4392696619033813</v>
       </c>
       <c r="F31" t="n">
-        <v>37.05041666666671</v>
+        <v>28.95217777777779</v>
       </c>
       <c r="G31" t="n">
-        <v>4.699029126213592</v>
+        <v>5.436893203883495</v>
       </c>
       <c r="H31" t="n">
         <v>0.5</v>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0.5</v>
@@ -2431,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>17.01869082450867</v>
+        <v>14.90504813194275</v>
       </c>
       <c r="N31" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O31" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>17.01868891716003</v>
+        <v>14.90504598617554</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -2465,19 +2465,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.06666666486666671</v>
+        <v>0.1034482744307372</v>
       </c>
       <c r="D32" t="n">
-        <v>1.826684619148764e-155</v>
+        <v>1.655683138994155e-155</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4728939831256866</v>
+        <v>0.4245007336139679</v>
       </c>
       <c r="F32" t="n">
-        <v>44.07307017543863</v>
+        <v>39.29180147058824</v>
       </c>
       <c r="G32" t="n">
-        <v>4.31</v>
+        <v>6.34</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2495,13 +2495,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>18.04558634757996</v>
+        <v>17.73605585098267</v>
       </c>
       <c r="N32" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O32" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>18.04558396339417</v>
+        <v>17.73605346679688</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -2529,28 +2529,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2200956899942767</v>
+        <v>0.1505376303335647</v>
       </c>
       <c r="D33" t="n">
-        <v>3.120497077561796e-155</v>
+        <v>6.2977181576197e-79</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6162853240966797</v>
+        <v>0.5537948608398438</v>
       </c>
       <c r="F33" t="n">
-        <v>62.47027648482592</v>
+        <v>45.34245730550285</v>
       </c>
       <c r="G33" t="n">
-        <v>2.379501385041551</v>
+        <v>2.13573407202216</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0.5</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>21.72465348243713</v>
+        <v>22.78242349624634</v>
       </c>
       <c r="N33" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O33" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>21.72464990615845</v>
+        <v>22.78242158889771</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -2593,22 +2593,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2589928008695203</v>
+        <v>0.2866241991301879</v>
       </c>
       <c r="D34" t="n">
-        <v>1.144708978599861e-78</v>
+        <v>0.02291705889371495</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6116858124732971</v>
+        <v>0.6197342276573181</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89452380952383</v>
+        <v>51.06374008651767</v>
       </c>
       <c r="G34" t="n">
-        <v>1.334302325581395</v>
+        <v>1.582848837209302</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2623,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.65286684036255</v>
+        <v>20.91930818557739</v>
       </c>
       <c r="N34" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O34" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.65286445617676</v>
+        <v>20.91930603981018</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -2657,19 +2657,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2485875656987137</v>
+        <v>0.3032258018545266</v>
       </c>
       <c r="D35" t="n">
-        <v>1.099550774608724e-78</v>
+        <v>0.05537446847183024</v>
       </c>
       <c r="E35" t="n">
-        <v>0.621554970741272</v>
+        <v>0.6720299124717712</v>
       </c>
       <c r="F35" t="n">
-        <v>41.4150617015099</v>
+        <v>55.73811319073087</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7994746059544658</v>
+        <v>0.5490367775831874</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>21.33079433441162</v>
+        <v>22.47612571716309</v>
       </c>
       <c r="N35" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O35" t="n">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.33079171180725</v>
+        <v>22.47612309455872</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2483221428537004</v>
+        <v>0.2323232275272933</v>
       </c>
       <c r="D36" t="n">
-        <v>6.14268872723611e-79</v>
+        <v>3.031447199226272e-155</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6282656192779541</v>
+        <v>0.6057893633842468</v>
       </c>
       <c r="F36" t="n">
-        <v>21.87243750000002</v>
+        <v>34.52129889030383</v>
       </c>
       <c r="G36" t="n">
-        <v>1.820919175911252</v>
+        <v>0.8351822503961965</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0.5</v>
@@ -2751,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>19.6631817817688</v>
+        <v>20.32740139961243</v>
       </c>
       <c r="N36" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O36" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>19.66317915916443</v>
+        <v>20.32739949226379</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -2785,28 +2785,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.205673753921835</v>
+        <v>0.1222222199111111</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01682782881688281</v>
+        <v>1.384479675656922e-235</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6191723942756653</v>
+        <v>0.4577810764312744</v>
       </c>
       <c r="F37" t="n">
-        <v>48.54772653721687</v>
+        <v>22.40866666666668</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7571580063626723</v>
+        <v>0.1866383881230117</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0.5</v>
@@ -2815,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>20.27805399894714</v>
+        <v>19.15871143341064</v>
       </c>
       <c r="N37" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O37" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>20.27805161476135</v>
+        <v>19.1587085723877</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -2849,22 +2849,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.281938321072794</v>
+        <v>0.2421874950000001</v>
       </c>
       <c r="D38" t="n">
-        <v>1.035890986117743e-78</v>
+        <v>0.03331223002018526</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5993925333023071</v>
+        <v>0.6055083274841309</v>
       </c>
       <c r="F38" t="n">
-        <v>48.6674314056564</v>
+        <v>45.43719814241487</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7529107373868047</v>
+        <v>0.9159120310478654</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>26.5564227104187</v>
+        <v>19.77750611305237</v>
       </c>
       <c r="N38" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O38" t="n">
         <v>10.8</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.55642032623291</v>
+        <v>19.77750420570374</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -2913,19 +2913,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2941176420874233</v>
+        <v>0.2520325153810563</v>
       </c>
       <c r="D39" t="n">
-        <v>7.191562502802998e-79</v>
+        <v>1.006876470007107e-78</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6183402538299561</v>
+        <v>0.5928747653961182</v>
       </c>
       <c r="F39" t="n">
-        <v>50.27687917737791</v>
+        <v>53.92496142719384</v>
       </c>
       <c r="G39" t="n">
-        <v>1.361356932153392</v>
+        <v>1.163716814159292</v>
       </c>
       <c r="H39" t="n">
         <v>0.6666666666666666</v>
@@ -2943,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>27.04595685005188</v>
+        <v>17.01350069046021</v>
       </c>
       <c r="N39" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O39" t="n">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>27.04595398902893</v>
+        <v>17.01349830627441</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2009569339209268</v>
+        <v>0.192468614663609</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004444156298867489</v>
+        <v>3.477385729500108e-79</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5225830674171448</v>
+        <v>0.5525883436203003</v>
       </c>
       <c r="F40" t="n">
-        <v>62.53868686868688</v>
+        <v>62.27728501228503</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3381057268722467</v>
+        <v>0.5473568281938326</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>15.79669404029846</v>
+        <v>15.114009141922</v>
       </c>
       <c r="N40" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O40" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>15.79669165611267</v>
+        <v>15.11400675773621</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3041,22 +3041,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1758957626156246</v>
+        <v>0.1623188366958203</v>
       </c>
       <c r="D41" t="n">
-        <v>1.073438714336149e-81</v>
+        <v>9.532040981808483e-157</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6310161352157593</v>
+        <v>0.6218273043632507</v>
       </c>
       <c r="F41" t="n">
-        <v>40.05867741935486</v>
+        <v>51.87327702702706</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2277091906721536</v>
+        <v>0.350480109739369</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>17.92160892486572</v>
+        <v>15.44945287704468</v>
       </c>
       <c r="N41" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O41" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.92160677909851</v>
+        <v>15.44945025444031</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2403100726783247</v>
+        <v>0.1946902610823088</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03021264405930906</v>
+        <v>8.178181059895462e-156</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5490958094596863</v>
+        <v>0.5382434129714966</v>
       </c>
       <c r="F42" t="n">
-        <v>55.16482758620688</v>
+        <v>53.53323529411767</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6925714285714286</v>
+        <v>0.4754285714285714</v>
       </c>
       <c r="H42" t="n">
         <v>0.1666666666666667</v>
@@ -3135,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>14.46149921417236</v>
+        <v>15.86126089096069</v>
       </c>
       <c r="N42" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O42" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>14.46149682998657</v>
+        <v>15.86125874519348</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3169,28 +3169,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1858736012962785</v>
+        <v>0.276094271199084</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01683376203916913</v>
+        <v>4.662275921271406e-155</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5308158993721008</v>
+        <v>0.6518672108650208</v>
       </c>
       <c r="F43" t="n">
-        <v>26.51964285714288</v>
+        <v>41.12207207207209</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5189990732159406</v>
+        <v>0.7173308619091752</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K43" t="n">
         <v>0.5</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>16.06110239028931</v>
+        <v>19.4684681892395</v>
       </c>
       <c r="N43" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O43" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.06109976768494</v>
+        <v>19.46846580505371</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2215384565396451</v>
+        <v>0.19469026049025</v>
       </c>
       <c r="D44" t="n">
-        <v>3.435645757604496e-155</v>
+        <v>3.324372046528335e-155</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6386032104492188</v>
+        <v>0.631097137928009</v>
       </c>
       <c r="F44" t="n">
-        <v>49.90329103885807</v>
+        <v>51.43353605121294</v>
       </c>
       <c r="G44" t="n">
-        <v>1.22617680826636</v>
+        <v>1.269804822043628</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3263,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>26.30652523040771</v>
+        <v>31.94454669952393</v>
       </c>
       <c r="N44" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O44" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.3065230846405</v>
+        <v>31.94454383850098</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -3297,25 +3297,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.2028526118762009</v>
+        <v>0.1313628873503901</v>
       </c>
       <c r="D45" t="n">
-        <v>8.92730864688979e-81</v>
+        <v>4.633773535439824e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5949414968490601</v>
+        <v>0.5271286964416504</v>
       </c>
       <c r="F45" t="n">
-        <v>56.25033333333334</v>
+        <v>40.23664335664338</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1716479298053194</v>
+        <v>0.1480669043049082</v>
       </c>
       <c r="H45" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3327,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>18.47704458236694</v>
+        <v>20.53400301933289</v>
       </c>
       <c r="N45" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O45" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>18.47704148292542</v>
+        <v>20.53400087356567</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -3361,19 +3361,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2469470789280684</v>
+        <v>0.2470588203648789</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01069692196515389</v>
+        <v>0.01112671481825825</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6142987608909607</v>
+        <v>0.6092393398284912</v>
       </c>
       <c r="F46" t="n">
-        <v>53.62165131211614</v>
+        <v>61.02700378144777</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3436721129880919</v>
+        <v>0.2265300470783717</v>
       </c>
       <c r="H46" t="n">
         <v>0.2857142857142857</v>
@@ -3382,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0.5</v>
@@ -3391,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>23.88442134857178</v>
+        <v>26.07737278938293</v>
       </c>
       <c r="N46" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O46" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>23.88441896438599</v>
+        <v>26.0773708820343</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -3425,25 +3425,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2285714250671387</v>
+        <v>0.07843137122849385</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002074748471630365</v>
+        <v>1.676950951873765e-164</v>
       </c>
       <c r="E47" t="n">
-        <v>0.631462037563324</v>
+        <v>0.4851841032505035</v>
       </c>
       <c r="F47" t="n">
-        <v>20.8783936651584</v>
+        <v>13.87700000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2570745316859306</v>
+        <v>0.08888003188521323</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -3455,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>21.59605717658997</v>
+        <v>19.34514474868774</v>
       </c>
       <c r="N47" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O47" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>21.5960545539856</v>
+        <v>19.34514284133911</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -3489,22 +3489,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2588235252275279</v>
+        <v>0.2614379034969456</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04438357419349282</v>
+        <v>0.07255914754109336</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6549850106239319</v>
+        <v>0.5713212490081787</v>
       </c>
       <c r="F48" t="n">
-        <v>50.91093023255814</v>
+        <v>58.24670588235296</v>
       </c>
       <c r="G48" t="n">
-        <v>2.28051391862955</v>
+        <v>1.002141327623126</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3519,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>27.01297521591187</v>
+        <v>16.889892578125</v>
       </c>
       <c r="N48" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O48" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>27.01297330856323</v>
+        <v>16.88989043235779</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1188118789452015</v>
+        <v>0.167400876309651</v>
       </c>
       <c r="D49" t="n">
-        <v>3.117078419960839e-235</v>
+        <v>1.070010179137277e-78</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4868455231189728</v>
+        <v>0.6181163787841797</v>
       </c>
       <c r="F49" t="n">
-        <v>48.65857142857146</v>
+        <v>36.80732705920207</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2716763005780347</v>
+        <v>1.630057803468208</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3583,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>19.11106491088867</v>
+        <v>20.37932252883911</v>
       </c>
       <c r="N49" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O49" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>19.1110622882843</v>
+        <v>20.3793203830719</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -3617,22 +3617,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.1759259210973938</v>
+        <v>0.3092783455585079</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02555697903225253</v>
+        <v>0.06724668632224529</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5852737426757812</v>
+        <v>0.628553032875061</v>
       </c>
       <c r="F50" t="n">
-        <v>43.9533021463952</v>
+        <v>58.87454887218047</v>
       </c>
       <c r="G50" t="n">
-        <v>1.411877394636015</v>
+        <v>1.160919540229885</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>22.47949576377869</v>
+        <v>17.42970156669617</v>
       </c>
       <c r="N50" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O50" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>22.47949314117432</v>
+        <v>17.42969942092896</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -3681,28 +3681,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.3186813142996015</v>
+        <v>0.2995951367004869</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02688918114360769</v>
+        <v>1.652955181770795e-78</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6228978633880615</v>
+        <v>0.6510223746299744</v>
       </c>
       <c r="F51" t="n">
-        <v>50.34568181818184</v>
+        <v>20.29366666666667</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4873501997336884</v>
+        <v>1.033288948069241</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0.5</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>15.45457601547241</v>
+        <v>22.17871594429016</v>
       </c>
       <c r="N51" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O51" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>15.45457315444946</v>
+        <v>22.17871379852295</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.08522726825171123</v>
+        <v>0.2395209538647854</v>
       </c>
       <c r="D52" t="n">
-        <v>1.709410119754312e-155</v>
+        <v>7.009588677737404e-79</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5465483665466309</v>
+        <v>0.6430678963661194</v>
       </c>
       <c r="F52" t="n">
-        <v>26.35604453115326</v>
+        <v>61.36932692307695</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6004350978970269</v>
+        <v>0.4655547498187092</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3775,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>34.70317649841309</v>
+        <v>35.18469166755676</v>
       </c>
       <c r="N52" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O52" t="n">
         <v>10.6</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>34.70317411422729</v>
+        <v>35.18468880653381</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -3809,19 +3809,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.2836185778016632</v>
+        <v>0.3747680840856255</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01358219735576127</v>
+        <v>0.05847691212790611</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6270843744277954</v>
+        <v>0.6502313017845154</v>
       </c>
       <c r="F53" t="n">
-        <v>45.25083333333333</v>
+        <v>45.09931083650193</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3724653148345785</v>
+        <v>0.9429028815368197</v>
       </c>
       <c r="H53" t="n">
         <v>0.8571428571428571</v>
@@ -3839,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>17.70473003387451</v>
+        <v>45.13058233261108</v>
       </c>
       <c r="N53" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O53" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>17.7047278881073</v>
+        <v>45.13057923316956</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -3873,25 +3873,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1311475384681538</v>
+        <v>0.1063829748523717</v>
       </c>
       <c r="D54" t="n">
-        <v>1.329482223690365e-06</v>
+        <v>7.955131208155912e-81</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5608982443809509</v>
+        <v>0.5798297524452209</v>
       </c>
       <c r="F54" t="n">
-        <v>34.08040650406505</v>
+        <v>-24.38495215311002</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1861662987490802</v>
+        <v>0.401766004415011</v>
       </c>
       <c r="H54" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>16.80833220481873</v>
+        <v>27.99520373344421</v>
       </c>
       <c r="N54" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O54" t="n">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>16.80832958221436</v>
+        <v>27.99520087242126</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -3937,25 +3937,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.1505376317519046</v>
+        <v>0.2758620642697831</v>
       </c>
       <c r="D55" t="n">
-        <v>1.633466882560907e-159</v>
+        <v>0.008699590978341715</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5044971108436584</v>
+        <v>0.6737240552902222</v>
       </c>
       <c r="F55" t="n">
-        <v>46.68830434782612</v>
+        <v>-2.250723140495865</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1578266494178525</v>
+        <v>0.536869340232859</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3967,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>18.48308277130127</v>
+        <v>31.06554555892944</v>
       </c>
       <c r="N55" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O55" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>18.48308062553406</v>
+        <v>31.06554341316223</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -4001,22 +4001,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1874999965125001</v>
+        <v>0.1314878868385197</v>
       </c>
       <c r="D56" t="n">
-        <v>0.001398885778024451</v>
+        <v>4.947673402110401e-160</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5874080061912537</v>
+        <v>0.5217844247817993</v>
       </c>
       <c r="F56" t="n">
-        <v>22.556805785124</v>
+        <v>41.02100000000002</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2871729419272495</v>
+        <v>0.1646458200382897</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>18.12950372695923</v>
+        <v>18.1724750995636</v>
       </c>
       <c r="N56" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O56" t="n">
         <v>11.1</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>18.1295018196106</v>
+        <v>18.17247319221497</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -4065,25 +4065,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.234079170345508</v>
+        <v>0.2956259383236762</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00235415371659976</v>
+        <v>0.0184702848123404</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6076825857162476</v>
+        <v>0.6400914192199707</v>
       </c>
       <c r="F57" t="n">
-        <v>51.06269068392911</v>
+        <v>52.87565722037988</v>
       </c>
       <c r="G57" t="n">
-        <v>0.253618194348725</v>
+        <v>0.439696760854583</v>
       </c>
       <c r="H57" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -4095,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>21.99619221687317</v>
+        <v>29.57243299484253</v>
       </c>
       <c r="N57" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O57" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>21.99618983268738</v>
+        <v>29.5724310874939</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -4129,28 +4129,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.2038216510542011</v>
+        <v>0.203921563972626</v>
       </c>
       <c r="D58" t="n">
-        <v>2.966778155214472e-155</v>
+        <v>1.716503803703549e-155</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6053054332733154</v>
+        <v>0.5321516990661621</v>
       </c>
       <c r="F58" t="n">
-        <v>46.50381840796021</v>
+        <v>34.38741997792494</v>
       </c>
       <c r="G58" t="n">
-        <v>1.021598272138229</v>
+        <v>0.5982721382289417</v>
       </c>
       <c r="H58" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0.5</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>21.01087474822998</v>
+        <v>24.79690766334534</v>
       </c>
       <c r="N58" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O58" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>21.01087260246277</v>
+        <v>24.79690599441528</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -4193,22 +4193,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.2367346888876303</v>
+        <v>0.3055555507270234</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02421210945434274</v>
+        <v>4.548883402835458e-79</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5877125263214111</v>
+        <v>0.6269683241844177</v>
       </c>
       <c r="F59" t="n">
-        <v>33.87154219566841</v>
+        <v>50.90581319873451</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8345959595959596</v>
+        <v>0.7714646464646465</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4223,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>21.21993970870972</v>
+        <v>70.33502459526062</v>
       </c>
       <c r="N59" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O59" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>21.21993780136108</v>
+        <v>70.33502268791199</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -4257,25 +4257,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.2239089157263376</v>
+        <v>0.2842105228525085</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004600220915486913</v>
+        <v>0.002752658786039052</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5847235918045044</v>
+        <v>0.6284095644950867</v>
       </c>
       <c r="F60" t="n">
-        <v>34.89693014705884</v>
+        <v>38.03435581234911</v>
       </c>
       <c r="G60" t="n">
-        <v>0.213487071977638</v>
+        <v>0.2693920335429769</v>
       </c>
       <c r="H60" t="n">
         <v>0.5</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -4287,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>26.23387503623962</v>
+        <v>22.53480935096741</v>
       </c>
       <c r="N60" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O60" t="n">
         <v>10.7</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>26.23387169837952</v>
+        <v>22.53480744361877</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1694915226837755</v>
+        <v>0.2089552204889731</v>
       </c>
       <c r="D61" t="n">
-        <v>4.952740294038706e-79</v>
+        <v>8.494350016161502e-79</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5728356838226318</v>
+        <v>0.5655518770217896</v>
       </c>
       <c r="F61" t="n">
-        <v>26.98062205700126</v>
+        <v>53.71100000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>3.408906882591093</v>
+        <v>2.437246963562753</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -4351,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>21.67794752120972</v>
+        <v>21.6947033405304</v>
       </c>
       <c r="N61" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O61" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>21.67794585227966</v>
+        <v>21.69470191001892</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.2077922028057009</v>
+        <v>0.1574074029325276</v>
       </c>
       <c r="D62" t="n">
-        <v>2.744892298225602e-155</v>
+        <v>2.00109154799325e-155</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5649245977401733</v>
+        <v>0.5195060968399048</v>
       </c>
       <c r="F62" t="n">
-        <v>39.64160619469027</v>
+        <v>44.67240564202339</v>
       </c>
       <c r="G62" t="n">
-        <v>1.1125</v>
+        <v>2.025</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -4415,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>14.68391919136047</v>
+        <v>17.95080852508545</v>
       </c>
       <c r="N62" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O62" t="n">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>14.68391728401184</v>
+        <v>17.95080661773682</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -4449,28 +4449,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1515151465154386</v>
+        <v>0.20720720240362</v>
       </c>
       <c r="D63" t="n">
-        <v>3.401750715853553e-155</v>
+        <v>2.741655765058418e-155</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5367080569267273</v>
+        <v>0.5588216185569763</v>
       </c>
       <c r="F63" t="n">
-        <v>24.95842054263568</v>
+        <v>45.39382653061227</v>
       </c>
       <c r="G63" t="n">
-        <v>1.099023709902371</v>
+        <v>0.7224546722454672</v>
       </c>
       <c r="H63" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0.5</v>
@@ -4479,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>17.61943960189819</v>
+        <v>19.13504576683044</v>
       </c>
       <c r="N63" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O63" t="n">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>17.61943769454956</v>
+        <v>19.13504385948181</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
@@ -4513,22 +4513,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.2792452781630474</v>
+        <v>0.1984126934933234</v>
       </c>
       <c r="D64" t="n">
-        <v>1.135134814292146e-78</v>
+        <v>3.546905384757307e-155</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6794916391372681</v>
+        <v>0.606131911277771</v>
       </c>
       <c r="F64" t="n">
-        <v>46.49021739130436</v>
+        <v>40.73788812785389</v>
       </c>
       <c r="G64" t="n">
-        <v>1.521311475409836</v>
+        <v>1.321311475409836</v>
       </c>
       <c r="H64" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -4543,10 +4543,10 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>19.37497591972351</v>
+        <v>19.84299254417419</v>
       </c>
       <c r="N64" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O64" t="n">
         <v>11</v>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>19.3749737739563</v>
+        <v>19.84298944473267</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -4577,19 +4577,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.188034183227409</v>
+        <v>0.2033898255277859</v>
       </c>
       <c r="D65" t="n">
-        <v>3.940326186023563e-155</v>
+        <v>2.82800190692506e-155</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5799643397331238</v>
+        <v>0.6145339012145996</v>
       </c>
       <c r="F65" t="n">
-        <v>42.68660714285716</v>
+        <v>62.25596035543407</v>
       </c>
       <c r="G65" t="n">
-        <v>1.701402805611222</v>
+        <v>1.004008016032064</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -4607,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>18.91194319725037</v>
+        <v>19.82795667648315</v>
       </c>
       <c r="N65" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O65" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>18.91194152832031</v>
+        <v>19.82795429229736</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -4641,19 +4641,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1592039762164304</v>
+        <v>0.2191780778098873</v>
       </c>
       <c r="D66" t="n">
-        <v>1.047193922626811e-155</v>
+        <v>3.354594158207771e-79</v>
       </c>
       <c r="E66" t="n">
-        <v>0.561442494392395</v>
+        <v>0.5469995141029358</v>
       </c>
       <c r="F66" t="n">
-        <v>41.94287045252887</v>
+        <v>44.14336734693879</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4905897114178168</v>
+        <v>0.5119196988707654</v>
       </c>
       <c r="H66" t="n">
         <v>0.3333333333333333</v>
@@ -4671,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>20.38372182846069</v>
+        <v>16.98676586151123</v>
       </c>
       <c r="N66" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O66" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>20.38371968269348</v>
+        <v>16.9867639541626</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -4705,19 +4705,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2442244175625484</v>
+        <v>0.2592592544307271</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02802724001612789</v>
+        <v>2.6629323811826e-155</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6462611556053162</v>
+        <v>0.6214352250099182</v>
       </c>
       <c r="F67" t="n">
-        <v>45.37122950819673</v>
+        <v>52.46511591478699</v>
       </c>
       <c r="G67" t="n">
-        <v>1.419178082191781</v>
+        <v>0.6794520547945205</v>
       </c>
       <c r="H67" t="n">
         <v>0.75</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0.5</v>
@@ -4735,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>19.59940052032471</v>
+        <v>16.63107991218567</v>
       </c>
       <c r="N67" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O67" t="n">
-        <v>10.9</v>
+        <v>10.2</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>19.59939861297607</v>
+        <v>16.63107824325562</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -4769,28 +4769,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1348314578714809</v>
+        <v>0.05960264806258498</v>
       </c>
       <c r="D68" t="n">
-        <v>2.550502480658976e-155</v>
+        <v>1.889793415552292e-79</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4550180435180664</v>
+        <v>0.4309790432453156</v>
       </c>
       <c r="F68" t="n">
-        <v>34.51170087976539</v>
+        <v>30.7687429971989</v>
       </c>
       <c r="G68" t="n">
-        <v>3.622047244094488</v>
+        <v>15.09448818897638</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0.5</v>
@@ -4799,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>17.77588796615601</v>
+        <v>39.10432744026184</v>
       </c>
       <c r="N68" t="n">
-        <v>2094.19140625</v>
+        <v>2153.5390625</v>
       </c>
       <c r="O68" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>17.77588605880737</v>
+        <v>39.10432529449463</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
